--- a/Week 8 - Analysis/JC/OLS Results.xlsx
+++ b/Week 8 - Analysis/JC/OLS Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\culminating-project-group-1\Week 8 - Analysis\JC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A17101C-3535-4F98-A29D-84BF010240B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741BC31-2CF8-4E07-A546-E16F12486B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Fit" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="Socioeconomic Model" sheetId="2" r:id="rId3"/>
     <sheet name="Health Model" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -479,11 +490,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,9 +505,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,10 +512,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,6 +543,139 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -833,146 +974,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
         <family val="1"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1163,63 +1171,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1241,6 +1192,63 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1257,85 +1265,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5E236484-4D8B-4641-AE1E-A979E43FCE28}" name="Table6" displayName="Table6" ref="A1:D13" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5E236484-4D8B-4641-AE1E-A979E43FCE28}" name="Table6" displayName="Table6" ref="A1:D13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:D13" xr:uid="{5E236484-4D8B-4641-AE1E-A979E43FCE28}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{972B2640-1556-4A03-869F-BCA6181458DD}" name=" Statistic                           " dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{1F473E26-DFD9-4CCA-A2D4-5B32D90260E6}" name=" Environmental Model         " dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{48897A93-203A-43FD-BFAF-B6472FEF1F78}" name=" Socioeconomic Model         " dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{599FE989-0EAF-4093-A942-4CAB75F84655}" name=" Health Model                " dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{972B2640-1556-4A03-869F-BCA6181458DD}" name=" Statistic                           " dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1F473E26-DFD9-4CCA-A2D4-5B32D90260E6}" name=" Environmental Model         " dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{48897A93-203A-43FD-BFAF-B6472FEF1F78}" name=" Socioeconomic Model         " dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{599FE989-0EAF-4093-A942-4CAB75F84655}" name=" Health Model                " dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63C0633C-BA2C-4F71-A3F7-5204E010C94E}" name="Table7" displayName="Table7" ref="A2:F21" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{63C0633C-BA2C-4F71-A3F7-5204E010C94E}" name="Table7" displayName="Table7" ref="A2:F21" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A2:F21" xr:uid="{63C0633C-BA2C-4F71-A3F7-5204E010C94E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F21">
     <sortCondition descending="1" ref="B2:B21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7C10506C-0958-4AD9-A62C-E5E7AE7D00A6}" name="Variable" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{7A986753-2BBE-4B2C-B450-B29058DE3431}" name="Coefficient" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{B28F0492-78A3-47A5-8B3D-500888567C97}" name="Std Err" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{8B89AAB2-7F01-47D4-8FAB-F2512D5DED4A}" name="t" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{DCF2B98D-D451-47EA-AAC8-6AB420CEFBE8}" name="P-value" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{33EB8991-E74E-4705-888A-F753583F79B4}" name="95% CI" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{7C10506C-0958-4AD9-A62C-E5E7AE7D00A6}" name="Variable" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{7A986753-2BBE-4B2C-B450-B29058DE3431}" name="Coefficient" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{B28F0492-78A3-47A5-8B3D-500888567C97}" name="Std Err" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8B89AAB2-7F01-47D4-8FAB-F2512D5DED4A}" name="t" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{DCF2B98D-D451-47EA-AAC8-6AB420CEFBE8}" name="P-value" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{33EB8991-E74E-4705-888A-F753583F79B4}" name="95% CI" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A9C9FE16-118C-4ECA-A431-90E77AC7C113}" name="Table8" displayName="Table8" ref="A2:F24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A9C9FE16-118C-4ECA-A431-90E77AC7C113}" name="Table8" displayName="Table8" ref="A2:F24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A2:F24" xr:uid="{A9C9FE16-118C-4ECA-A431-90E77AC7C113}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F24">
     <sortCondition descending="1" ref="B2:B24"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB27E42D-219F-4B19-AEDE-8A769B508823}" name="Variable" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{4D74A56B-9475-4F58-B368-18CB8F03A8B2}" name="Coefficient" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{9D885BE2-7269-4483-9071-5CB1F9169DD7}" name="Std Err" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{40A4309A-D46D-48EF-8D57-0FA1785F7ABF}" name="t" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{D87A07D1-9866-4BB7-8A58-35F9913F8BBE}" name="P-value" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{57528BC9-FDCE-4D9E-A54D-830654B27FEA}" name="95% CI" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{AB27E42D-219F-4B19-AEDE-8A769B508823}" name="Variable" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4D74A56B-9475-4F58-B368-18CB8F03A8B2}" name="Coefficient" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9D885BE2-7269-4483-9071-5CB1F9169DD7}" name="Std Err" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{40A4309A-D46D-48EF-8D57-0FA1785F7ABF}" name="t" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D87A07D1-9866-4BB7-8A58-35F9913F8BBE}" name="P-value" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{57528BC9-FDCE-4D9E-A54D-830654B27FEA}" name="95% CI" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACCC06E-E512-453D-B51B-B8BCC4998739}" name="Table9" displayName="Table9" ref="A2:F12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACCC06E-E512-453D-B51B-B8BCC4998739}" name="Table9" displayName="Table9" ref="A2:F12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A2:F12" xr:uid="{9ACCC06E-E512-453D-B51B-B8BCC4998739}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F12">
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F57647CD-C35C-44A8-BA70-3A24135A7A0F}" name="Variable" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{D68751F5-337B-44C2-8C38-FF774F87868F}" name="Coefficient" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{FE94608F-EB64-4768-A406-2276A2B7FA09}" name="Std Err" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{C4CB1CF5-4BB6-4526-B8F1-34F72BE9FDA5}" name="t" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{09AF57B6-3B75-4AFD-9237-F6DF63E1CC22}" name="P-value" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{DDBE05EA-500D-44B2-ACD3-BCBE316EBDE6}" name="95% CI" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{F57647CD-C35C-44A8-BA70-3A24135A7A0F}" name="Variable" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{D68751F5-337B-44C2-8C38-FF774F87868F}" name="Coefficient" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{FE94608F-EB64-4768-A406-2276A2B7FA09}" name="Std Err" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C4CB1CF5-4BB6-4526-B8F1-34F72BE9FDA5}" name="t" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{09AF57B6-3B75-4AFD-9237-F6DF63E1CC22}" name="P-value" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{DDBE05EA-500D-44B2-ACD3-BCBE316EBDE6}" name="95% CI" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C16E03D5-E60B-46C2-9C8D-5C7BD8CAFF0A}" name="Table911" displayName="Table911" ref="A15:F25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C16E03D5-E60B-46C2-9C8D-5C7BD8CAFF0A}" name="Table911" displayName="Table911" ref="A15:F25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A15:F25" xr:uid="{C16E03D5-E60B-46C2-9C8D-5C7BD8CAFF0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:F25">
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{399321A8-D8FC-492A-B904-EA5964EC209F}" name="Variable" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{24F1FCFC-F2FF-4044-B85E-BF9D1C8D52FA}" name="Coefficient" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2A30F612-19B2-4E48-892A-A26A4A6F5A20}" name="Std Err" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D5F37563-866B-4EF3-96E9-1FECF0C72F12}" name="t" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{66B94B2E-AEBD-4DEE-B267-A50D1A5C0684}" name="P-value" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{6EBB910C-A553-4C8B-A098-F03FF67E6756}" name="95% CI" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{399321A8-D8FC-492A-B904-EA5964EC209F}" name="Variable" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{24F1FCFC-F2FF-4044-B85E-BF9D1C8D52FA}" name="Coefficient" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2A30F612-19B2-4E48-892A-A26A4A6F5A20}" name="Std Err" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{D5F37563-866B-4EF3-96E9-1FECF0C72F12}" name="t" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{66B94B2E-AEBD-4DEE-B267-A50D1A5C0684}" name="P-value" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6EBB910C-A553-4C8B-A098-F03FF67E6756}" name="95% CI" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1612,190 +1620,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="2" customWidth="1"/>
-    <col min="2" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.85546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="22.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>2308</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>2308</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>2308</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.66500000000000004</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.80600000000000005</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.66200000000000003</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.80500000000000005</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>252.4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>453.3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>1704</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>-6912.8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>-6280.1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>-5716.3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>13860</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>12600</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>11450</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>13970</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>12730</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>11520</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>21</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>2289</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>2286</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>2297</v>
       </c>
     </row>
@@ -1817,423 +1825,423 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="11.140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="22.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="22.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>70.973500000000001</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>702.07399999999996</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2.7248999999999999</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.14299999999999999</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>19.106000000000002</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1.4113</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>11.939</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1.0814999999999999</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.122</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8.8840000000000003</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.83050000000000002</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.122</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6.7880000000000003</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>0.59179999999999999</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.109</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>5.415</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>0.5837</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.14699999999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>3.9780000000000002</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0.56989999999999996</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.122</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>4.6529999999999996</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0.34939999999999999</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.124</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>2.8290000000000002</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>0.3306</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.153</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2.1539999999999999</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3.1E-2</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.31419999999999998</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.128</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1.4E-2</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>-0.25330000000000003</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.109</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>-2.3170000000000002</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>-0.48259999999999997</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.115</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>-4.2110000000000003</v>
       </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>-0.5</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.123</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>-4.05</v>
       </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>-0.67949999999999999</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>-5.7610000000000001</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>-1.0938000000000001</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.123</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>-8.9149999999999991</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>-1.1526000000000001</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.14399999999999999</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>-8.0050000000000008</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>-1.2343999999999999</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.122</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>-10.090999999999999</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>-3.0727000000000002</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.124</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>-24.788</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2253,46 +2261,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C002A61-CA7C-445D-A5BF-F9F38721554D}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="4" customWidth="1"/>
-    <col min="2" max="6" width="14.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2300,199 +2308,199 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>70.973500000000001</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>922.89499999999998</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>1.6917</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>17.463000000000001</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>1.2373000000000001</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>9.4E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>13.138999999999999</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>1.1148</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>11.313000000000001</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>0.90900000000000003</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <v>10.433</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>0.70469999999999999</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>0.115</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="9">
         <v>6.1479999999999997</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>0.5353</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>6.4939999999999998</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>0.39539999999999997</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>0.09</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>4.4119999999999999</v>
       </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>0.32019999999999998</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>0.108</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>2.964</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>0.31409999999999999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>3.456</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2500,239 +2508,239 @@
       <c r="A13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="9">
         <v>-0.17230000000000001</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>-2.0640000000000001</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="9">
         <v>3.9E-2</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>-0.2127</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>0.09</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>-2.355</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
         <v>1.9E-2</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>-0.22189999999999999</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>-2.63</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>-0.2576</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>-3.169</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
         <v>2E-3</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>-0.35070000000000001</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>-3.6949999999999998</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>-0.37780000000000002</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="9">
         <v>-4.1219999999999999</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>-0.43080000000000002</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="9">
         <v>-4.6390000000000002</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>-0.44840000000000002</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>0.1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>-4.5030000000000001</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>-0.49919999999999998</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>-5.1529999999999996</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>-0.74170000000000003</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="9">
         <v>-9.2050000000000001</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>-0.94899999999999995</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>0.104</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>-9.1539999999999999</v>
       </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>-4.6515000000000004</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="9">
         <v>-39.512</v>
       </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2751,16 +2759,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010D4D3-29CD-4CFC-BAC3-81E2DC19604E}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="6" customWidth="1"/>
-    <col min="2" max="6" width="12.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="2" max="6" width="12.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,442 +2783,442 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>70.973500000000001</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.06</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1181.0820000000001</v>
       </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1.8903000000000001</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>24.431999999999999</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.5333</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.108</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4.952</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>-0.2172</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>-2.2570000000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>-0.34560000000000002</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>-5.0039999999999996</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>-0.70150000000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>-9.6530000000000005</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>-0.73280000000000001</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>-8.8930000000000007</v>
       </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>-0.82340000000000002</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>-9.702</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>-2.2119</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>-28.904</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>-4.1798000000000002</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>-44.106999999999999</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>70.973500000000001</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>0.06</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1181.0820000000001</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>1.8903000000000001</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>24.431999999999999</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>0.5333</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>0.108</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>4.952</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>-0.2172</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>-2.2570000000000001</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>-0.34560000000000002</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>-5.0039999999999996</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>-0.70150000000000001</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>-9.6530000000000005</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>-0.73280000000000001</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>-8.8930000000000007</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="36" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>-0.82340000000000002</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>-9.702</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>-2.2119</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>-28.904</v>
       </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>-4.1798000000000002</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>-44.106999999999999</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Week 8 - Analysis/JC/OLS Results.xlsx
+++ b/Week 8 - Analysis/JC/OLS Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\culminating-project-group-1\Week 8 - Analysis\JC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741BC31-2CF8-4E07-A546-E16F12486B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB2E9A-A8D6-452B-B230-CCC6EF408FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Fit" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="129">
   <si>
     <t>Variable</t>
   </si>
@@ -423,12 +423,18 @@
   </si>
   <si>
     <t>Incidence of tuberculosis</t>
+  </si>
+  <si>
+    <t>RMSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -521,6 +527,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,6 +552,310 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -638,6 +951,25 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -658,329 +990,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1265,8 +1274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5E236484-4D8B-4641-AE1E-A979E43FCE28}" name="Table6" displayName="Table6" ref="A1:D13" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A1:D13" xr:uid="{5E236484-4D8B-4641-AE1E-A979E43FCE28}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5E236484-4D8B-4641-AE1E-A979E43FCE28}" name="Table6" displayName="Table6" ref="A1:D14" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="A1:D14" xr:uid="{5E236484-4D8B-4641-AE1E-A979E43FCE28}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{972B2640-1556-4A03-869F-BCA6181458DD}" name=" Statistic                           " dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{1F473E26-DFD9-4CCA-A2D4-5B32D90260E6}" name=" Environmental Model         " dataDxfId="34"/>
@@ -1296,54 +1305,54 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A9C9FE16-118C-4ECA-A431-90E77AC7C113}" name="Table8" displayName="Table8" ref="A2:F24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A9C9FE16-118C-4ECA-A431-90E77AC7C113}" name="Table8" displayName="Table8" ref="A2:F24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A2:F24" xr:uid="{A9C9FE16-118C-4ECA-A431-90E77AC7C113}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F24">
     <sortCondition descending="1" ref="B2:B24"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{AB27E42D-219F-4B19-AEDE-8A769B508823}" name="Variable" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4D74A56B-9475-4F58-B368-18CB8F03A8B2}" name="Coefficient" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{9D885BE2-7269-4483-9071-5CB1F9169DD7}" name="Std Err" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{40A4309A-D46D-48EF-8D57-0FA1785F7ABF}" name="t" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D87A07D1-9866-4BB7-8A58-35F9913F8BBE}" name="P-value" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{57528BC9-FDCE-4D9E-A54D-830654B27FEA}" name="95% CI" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AB27E42D-219F-4B19-AEDE-8A769B508823}" name="Variable" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{4D74A56B-9475-4F58-B368-18CB8F03A8B2}" name="Coefficient" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9D885BE2-7269-4483-9071-5CB1F9169DD7}" name="Std Err" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{40A4309A-D46D-48EF-8D57-0FA1785F7ABF}" name="t" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{D87A07D1-9866-4BB7-8A58-35F9913F8BBE}" name="P-value" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{57528BC9-FDCE-4D9E-A54D-830654B27FEA}" name="95% CI" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACCC06E-E512-453D-B51B-B8BCC4998739}" name="Table9" displayName="Table9" ref="A2:F12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9ACCC06E-E512-453D-B51B-B8BCC4998739}" name="Table9" displayName="Table9" ref="A2:F12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A2:F12" xr:uid="{9ACCC06E-E512-453D-B51B-B8BCC4998739}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F12">
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F57647CD-C35C-44A8-BA70-3A24135A7A0F}" name="Variable" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{D68751F5-337B-44C2-8C38-FF774F87868F}" name="Coefficient" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{FE94608F-EB64-4768-A406-2276A2B7FA09}" name="Std Err" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{C4CB1CF5-4BB6-4526-B8F1-34F72BE9FDA5}" name="t" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{09AF57B6-3B75-4AFD-9237-F6DF63E1CC22}" name="P-value" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{DDBE05EA-500D-44B2-ACD3-BCBE316EBDE6}" name="95% CI" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{F57647CD-C35C-44A8-BA70-3A24135A7A0F}" name="Variable" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D68751F5-337B-44C2-8C38-FF774F87868F}" name="Coefficient" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{FE94608F-EB64-4768-A406-2276A2B7FA09}" name="Std Err" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C4CB1CF5-4BB6-4526-B8F1-34F72BE9FDA5}" name="t" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{09AF57B6-3B75-4AFD-9237-F6DF63E1CC22}" name="P-value" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{DDBE05EA-500D-44B2-ACD3-BCBE316EBDE6}" name="95% CI" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C16E03D5-E60B-46C2-9C8D-5C7BD8CAFF0A}" name="Table911" displayName="Table911" ref="A15:F25" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C16E03D5-E60B-46C2-9C8D-5C7BD8CAFF0A}" name="Table911" displayName="Table911" ref="A15:F25" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A15:F25" xr:uid="{C16E03D5-E60B-46C2-9C8D-5C7BD8CAFF0A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:F25">
     <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{399321A8-D8FC-492A-B904-EA5964EC209F}" name="Variable" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{24F1FCFC-F2FF-4044-B85E-BF9D1C8D52FA}" name="Coefficient" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2A30F612-19B2-4E48-892A-A26A4A6F5A20}" name="Std Err" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{D5F37563-866B-4EF3-96E9-1FECF0C72F12}" name="t" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{66B94B2E-AEBD-4DEE-B267-A50D1A5C0684}" name="P-value" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6EBB910C-A553-4C8B-A098-F03FF67E6756}" name="95% CI" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{399321A8-D8FC-492A-B904-EA5964EC209F}" name="Variable" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{24F1FCFC-F2FF-4044-B85E-BF9D1C8D52FA}" name="Coefficient" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{2A30F612-19B2-4E48-892A-A26A4A6F5A20}" name="Std Err" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D5F37563-866B-4EF3-96E9-1FECF0C72F12}" name="t" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{66B94B2E-AEBD-4DEE-B267-A50D1A5C0684}" name="P-value" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{6EBB910C-A553-4C8B-A098-F03FF67E6756}" name="95% CI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1612,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6CA7E1-9CA8-477F-89AB-0A3299EE2523}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1711,99 +1720,113 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4">
-        <v>252.4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>453.3</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1704</v>
+        <v>128</v>
+      </c>
+      <c r="B7" s="12">
+        <v>23.917000000000002</v>
+      </c>
+      <c r="C7" s="12">
+        <v>15.439490694179399</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8.9317796639129803</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
+        <v>252.4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>453.3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1704</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8">
-        <v>-6912.8</v>
-      </c>
-      <c r="C9" s="8">
-        <v>-6280.1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>-5716.3</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="7">
-        <v>13860</v>
-      </c>
-      <c r="C10" s="7">
-        <v>12600</v>
-      </c>
-      <c r="D10" s="7">
-        <v>11450</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-6912.8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-6280.1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-5716.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="7">
-        <v>13970</v>
+        <v>13860</v>
       </c>
       <c r="C11" s="7">
-        <v>12730</v>
+        <v>12600</v>
       </c>
       <c r="D11" s="7">
-        <v>11520</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="7">
+        <v>13970</v>
+      </c>
+      <c r="C12" s="7">
+        <v>12730</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11520</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>2289</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>2286</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>2297</v>
       </c>
     </row>
@@ -1820,7 +1843,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F21"/>
+      <selection activeCell="A4" sqref="A4:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2261,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C002A61-CA7C-445D-A5BF-F9F38721554D}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
